--- a/database/industries/shoyande/gharn/product/yearly.xlsx
+++ b/database/industries/shoyande/gharn/product/yearly.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE966B6E-0A2B-4BC6-AFA3-2E7C8A352123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +291,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -302,7 +303,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -349,6 +350,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -384,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,17 +570,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -555,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -579,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -589,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -601,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -613,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -623,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -645,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -655,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -679,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -701,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -725,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -749,7 +784,7 @@
         <v>41103</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -773,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -797,7 +832,7 @@
         <v>46347</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -821,7 +856,7 @@
         <v>48871</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
@@ -843,7 +878,7 @@
         <v>136321</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -853,7 +888,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -863,7 +898,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -873,7 +908,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
@@ -895,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -905,7 +940,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -929,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
@@ -953,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
@@ -975,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
@@ -999,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1047,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1071,7 +1106,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>48352</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>135418</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1127,7 +1162,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1137,7 +1172,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1147,7 +1182,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1179,7 +1214,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1203,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
@@ -1275,7 +1310,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
@@ -1299,7 +1334,7 @@
         <v>9551086</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -1323,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
@@ -1347,7 +1382,7 @@
         <v>8200109</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1371,7 +1406,7 @@
         <v>5315951</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>23112181</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1403,7 +1438,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1413,7 +1448,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1423,7 +1458,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>26</v>
       </c>
@@ -1445,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1455,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1479,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
@@ -1503,7 +1538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
@@ -1527,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>16</v>
       </c>
@@ -1575,7 +1610,7 @@
         <v>230881019</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>17</v>
       </c>
@@ -1599,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>18</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>179441310</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -1647,7 +1682,7 @@
         <v>109942732</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1657,7 +1692,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1667,7 +1702,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1677,7 +1712,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
@@ -1699,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1709,7 +1744,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1733,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -1757,7 +1792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1781,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
@@ -1805,7 +1840,7 @@
         <v>-33207</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +1864,7 @@
         <v>-6692251</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -1853,7 +1888,7 @@
         <v>-6599890</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
@@ -1877,7 +1912,7 @@
         <v>-4431481</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>20</v>
       </c>
@@ -1899,7 +1934,7 @@
         <v>-17756829</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1909,7 +1944,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1919,7 +1954,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1929,7 +1964,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>31</v>
       </c>
@@ -1951,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1961,7 +1996,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>10</v>
       </c>
@@ -1985,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
@@ -2033,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>14</v>
       </c>
@@ -2057,7 +2092,7 @@
         <v>11828</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>16</v>
       </c>
@@ -2081,7 +2116,7 @@
         <v>2858835</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2140,7 @@
         <v>1600219</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -2129,7 +2164,7 @@
         <v>884470</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>20</v>
       </c>

--- a/database/industries/shoyande/gharn/product/yearly.xlsx
+++ b/database/industries/shoyande/gharn/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE966B6E-0A2B-4BC6-AFA3-2E7C8A352123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D850458-EDD3-4701-9104-6C4E574F2FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قرن-پدیده شیمی قرن</t>
@@ -575,12 +575,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -590,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -624,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -658,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -690,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -760,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -784,7 +784,7 @@
         <v>41103</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -832,7 +832,7 @@
         <v>46347</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -856,7 +856,7 @@
         <v>48871</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
@@ -878,7 +878,7 @@
         <v>136321</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -888,7 +888,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -898,7 +898,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -908,7 +908,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -940,7 +940,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
@@ -988,7 +988,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>41368</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1106,7 +1106,7 @@
         <v>45698</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>48352</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>135418</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1162,7 +1162,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1172,7 +1172,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1214,7 +1214,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>9551086</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>8200109</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>5315951</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>20</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>23112181</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B49" s="7" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>14</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>16</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>230881019</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>17</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
         <v>18</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>179441310</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>109942732</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1692,7 +1692,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1712,7 +1712,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>-33207</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
@@ -1864,7 +1864,7 @@
         <v>-6692251</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>-6599890</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>-4431481</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>20</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>-17756829</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1944,7 +1944,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1954,7 +1954,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B75" s="7" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1996,7 +1996,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>10</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>22</v>
       </c>
@@ -2044,7 +2044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>11828</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>16</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>2858835</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>1600219</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -2164,7 +2164,7 @@
         <v>884470</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>20</v>
       </c>

--- a/database/industries/shoyande/gharn/product/yearly.xlsx
+++ b/database/industries/shoyande/gharn/product/yearly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\shoyande\gharn\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D850458-EDD3-4701-9104-6C4E574F2FA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DA92D1-23F0-4D38-87BD-4024BAED5E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="32">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>دوازده ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>دوازده ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -50,6 +47,9 @@
   </si>
   <si>
     <t>دوازده ماهه منتهی به 1400/12</t>
+  </si>
+  <si>
+    <t>دوازده ماهه منتهی به 1401/12</t>
   </si>
   <si>
     <t>سایر</t>
@@ -575,12 +575,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -590,7 +590,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -602,7 +602,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -614,7 +614,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -624,7 +624,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -648,7 +648,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -658,7 +658,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -680,7 +680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -690,7 +690,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -704,17 +704,17 @@
       <c r="F10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
+      <c r="G10" s="9">
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>13</v>
       </c>
@@ -729,14 +729,14 @@
       <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>12</v>
+      <c r="H11" s="11">
+        <v>0</v>
       </c>
       <c r="I11" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
@@ -753,14 +753,14 @@
       <c r="G12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>12</v>
+      <c r="H12" s="9">
+        <v>0</v>
       </c>
       <c r="I12" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>16</v>
       </c>
@@ -769,22 +769,22 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>29012</v>
+        <v>33696</v>
       </c>
       <c r="F13" s="11">
-        <v>33696</v>
+        <v>39690</v>
       </c>
       <c r="G13" s="11">
-        <v>39690</v>
+        <v>57648</v>
       </c>
       <c r="H13" s="11">
-        <v>57648</v>
+        <v>41103</v>
       </c>
       <c r="I13" s="11">
-        <v>41103</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+        <v>45359</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>17</v>
       </c>
@@ -792,8 +792,8 @@
         <v>11</v>
       </c>
       <c r="D14" s="9"/>
-      <c r="E14" s="9">
-        <v>33629</v>
+      <c r="E14" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>12</v>
@@ -808,7 +808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>18</v>
       </c>
@@ -817,22 +817,22 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>34491</v>
+        <v>38016</v>
       </c>
       <c r="F15" s="11">
-        <v>38016</v>
+        <v>47156</v>
       </c>
       <c r="G15" s="11">
-        <v>47156</v>
+        <v>49347</v>
       </c>
       <c r="H15" s="11">
-        <v>49347</v>
+        <v>46347</v>
       </c>
       <c r="I15" s="11">
-        <v>46347</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68731</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>19</v>
       </c>
@@ -840,45 +840,45 @@
         <v>11</v>
       </c>
       <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
-        <v>12</v>
+      <c r="E16" s="9">
+        <v>33430</v>
       </c>
       <c r="F16" s="9">
-        <v>33430</v>
+        <v>37115</v>
       </c>
       <c r="G16" s="9">
-        <v>37115</v>
+        <v>45028</v>
       </c>
       <c r="H16" s="9">
-        <v>45028</v>
+        <v>48871</v>
       </c>
       <c r="I16" s="9">
-        <v>48871</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>55205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
       <c r="E17" s="13">
-        <v>97132</v>
+        <v>105142</v>
       </c>
       <c r="F17" s="13">
-        <v>105142</v>
+        <v>123961</v>
       </c>
       <c r="G17" s="13">
-        <v>123961</v>
+        <v>152023</v>
       </c>
       <c r="H17" s="13">
-        <v>152023</v>
+        <v>136321</v>
       </c>
       <c r="I17" s="13">
-        <v>136321</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>169295</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -888,7 +888,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -898,7 +898,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -908,7 +908,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B21" s="7" t="s">
         <v>21</v>
       </c>
@@ -930,7 +930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -940,7 +940,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>10</v>
       </c>
@@ -957,14 +957,14 @@
       <c r="G23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I23" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>22</v>
       </c>
@@ -972,30 +972,30 @@
         <v>23</v>
       </c>
       <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
-        <v>12</v>
+      <c r="E24" s="11">
+        <v>-1116</v>
       </c>
       <c r="F24" s="11">
-        <v>-1116</v>
+        <v>-729</v>
       </c>
       <c r="G24" s="11">
-        <v>-729</v>
-      </c>
-      <c r="H24" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9" t="s">
-        <v>12</v>
+      <c r="E25" s="9">
+        <v>0</v>
       </c>
       <c r="F25" s="9">
         <v>0</v>
@@ -1010,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>14</v>
       </c>
@@ -1027,14 +1027,14 @@
       <c r="G26" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H26" s="11" t="s">
-        <v>12</v>
+      <c r="H26" s="11">
+        <v>0</v>
       </c>
       <c r="I26" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="8" t="s">
         <v>16</v>
       </c>
@@ -1043,22 +1043,22 @@
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9">
-        <v>28387</v>
+        <v>34967</v>
       </c>
       <c r="F27" s="9">
-        <v>34967</v>
+        <v>38558</v>
       </c>
       <c r="G27" s="9">
-        <v>38558</v>
+        <v>57909</v>
       </c>
       <c r="H27" s="9">
-        <v>57909</v>
+        <v>41368</v>
       </c>
       <c r="I27" s="9">
-        <v>41368</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>44827</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
@@ -1066,8 +1066,8 @@
         <v>11</v>
       </c>
       <c r="D28" s="11"/>
-      <c r="E28" s="11">
-        <v>32806</v>
+      <c r="E28" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>12</v>
@@ -1082,7 +1082,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>18</v>
       </c>
@@ -1091,22 +1091,22 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>34084</v>
+        <v>39133</v>
       </c>
       <c r="F29" s="9">
-        <v>39133</v>
+        <v>45015</v>
       </c>
       <c r="G29" s="9">
-        <v>45015</v>
+        <v>49582</v>
       </c>
       <c r="H29" s="9">
-        <v>49582</v>
+        <v>45698</v>
       </c>
       <c r="I29" s="9">
-        <v>45698</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>68449</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>19</v>
       </c>
@@ -1114,45 +1114,45 @@
         <v>11</v>
       </c>
       <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
-        <v>12</v>
+      <c r="E30" s="11">
+        <v>34002</v>
       </c>
       <c r="F30" s="11">
-        <v>34002</v>
+        <v>36838</v>
       </c>
       <c r="G30" s="11">
-        <v>36838</v>
+        <v>43028</v>
       </c>
       <c r="H30" s="11">
-        <v>43028</v>
+        <v>48352</v>
       </c>
       <c r="I30" s="11">
-        <v>48352</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+        <v>54753</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>95277</v>
+        <v>106986</v>
       </c>
       <c r="F31" s="15">
-        <v>106986</v>
+        <v>119682</v>
       </c>
       <c r="G31" s="15">
-        <v>119682</v>
+        <v>150519</v>
       </c>
       <c r="H31" s="15">
-        <v>150519</v>
+        <v>135418</v>
       </c>
       <c r="I31" s="15">
-        <v>135418</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>168029</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1162,7 +1162,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1172,7 +1172,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>24</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1214,7 +1214,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>10</v>
       </c>
@@ -1231,14 +1231,14 @@
       <c r="G37" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I37" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H37" s="9">
+        <v>0</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>22</v>
       </c>
@@ -1246,23 +1246,23 @@
         <v>25</v>
       </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
-        <v>12</v>
+      <c r="E38" s="11">
+        <v>-71678</v>
       </c>
       <c r="F38" s="11">
-        <v>-71678</v>
+        <v>-69131</v>
       </c>
       <c r="G38" s="11">
-        <v>-69131</v>
-      </c>
-      <c r="H38" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I38" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="8" t="s">
         <v>13</v>
       </c>
@@ -1270,8 +1270,8 @@
         <v>25</v>
       </c>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
-        <v>12</v>
+      <c r="E39" s="9">
+        <v>0</v>
       </c>
       <c r="F39" s="9">
         <v>0</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
@@ -1303,14 +1303,14 @@
       <c r="G40" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>12</v>
+      <c r="H40" s="11">
+        <v>45035</v>
       </c>
       <c r="I40" s="11">
-        <v>45035</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+        <v>65241</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>16</v>
       </c>
@@ -1319,22 +1319,22 @@
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="9">
-        <v>1345588</v>
+        <v>2499897</v>
       </c>
       <c r="F41" s="9">
-        <v>2499897</v>
+        <v>4079768</v>
       </c>
       <c r="G41" s="9">
-        <v>4079768</v>
+        <v>8149489</v>
       </c>
       <c r="H41" s="9">
-        <v>8149489</v>
+        <v>9551086</v>
       </c>
       <c r="I41" s="9">
-        <v>9551086</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13920139</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>17</v>
       </c>
@@ -1342,8 +1342,8 @@
         <v>25</v>
       </c>
       <c r="D42" s="11"/>
-      <c r="E42" s="11">
-        <v>833286</v>
+      <c r="E42" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>12</v>
@@ -1358,7 +1358,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>18</v>
       </c>
@@ -1367,22 +1367,22 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>1344078</v>
+        <v>2417313</v>
       </c>
       <c r="F43" s="9">
-        <v>2417313</v>
+        <v>4017232</v>
       </c>
       <c r="G43" s="9">
-        <v>4017232</v>
+        <v>6403761</v>
       </c>
       <c r="H43" s="9">
-        <v>6403761</v>
+        <v>8200109</v>
       </c>
       <c r="I43" s="9">
-        <v>8200109</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15825948</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1390,45 +1390,45 @@
         <v>25</v>
       </c>
       <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>12</v>
+      <c r="E44" s="11">
+        <v>1361263</v>
       </c>
       <c r="F44" s="11">
-        <v>1361263</v>
+        <v>2102389</v>
       </c>
       <c r="G44" s="11">
-        <v>2102389</v>
+        <v>3490873</v>
       </c>
       <c r="H44" s="11">
-        <v>3490873</v>
+        <v>5315951</v>
       </c>
       <c r="I44" s="11">
-        <v>5315951</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>7881087</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15">
-        <v>3522952</v>
+        <v>6206795</v>
       </c>
       <c r="F45" s="15">
-        <v>6206795</v>
+        <v>10130258</v>
       </c>
       <c r="G45" s="15">
-        <v>10130258</v>
+        <v>18044123</v>
       </c>
       <c r="H45" s="15">
-        <v>18044123</v>
+        <v>23112181</v>
       </c>
       <c r="I45" s="15">
-        <v>23112181</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>37692415</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1438,7 +1438,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1448,7 +1448,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1458,7 +1458,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>26</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1490,7 +1490,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="8" t="s">
         <v>10</v>
       </c>
@@ -1507,14 +1507,14 @@
       <c r="G51" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H51" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H51" s="9">
+        <v>0</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="10" t="s">
         <v>22</v>
       </c>
@@ -1522,8 +1522,8 @@
         <v>28</v>
       </c>
       <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
-        <v>12</v>
+      <c r="E52" s="11">
+        <v>0</v>
       </c>
       <c r="F52" s="11">
         <v>0</v>
@@ -1531,14 +1531,14 @@
       <c r="G52" s="11">
         <v>0</v>
       </c>
-      <c r="H52" s="11">
-        <v>0</v>
+      <c r="H52" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I52" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>13</v>
       </c>
@@ -1546,8 +1546,8 @@
         <v>28</v>
       </c>
       <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
-        <v>12</v>
+      <c r="E53" s="9">
+        <v>0</v>
       </c>
       <c r="F53" s="9">
         <v>0</v>
@@ -1555,14 +1555,14 @@
       <c r="G53" s="9">
         <v>0</v>
       </c>
-      <c r="H53" s="9">
-        <v>0</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H53" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>14</v>
       </c>
@@ -1579,14 +1579,14 @@
       <c r="G54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="11" t="s">
-        <v>12</v>
+      <c r="H54" s="11">
+        <v>0</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
         <v>16</v>
       </c>
@@ -1595,22 +1595,22 @@
       </c>
       <c r="D55" s="9"/>
       <c r="E55" s="9">
-        <v>47401557</v>
+        <v>71493036</v>
       </c>
       <c r="F55" s="9">
-        <v>71493036</v>
+        <v>105808600</v>
       </c>
       <c r="G55" s="9">
-        <v>105808600</v>
+        <v>140729230</v>
       </c>
       <c r="H55" s="9">
-        <v>140729230</v>
+        <v>230881019</v>
       </c>
       <c r="I55" s="9">
-        <v>230881019</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>310530238</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="10" t="s">
         <v>17</v>
       </c>
@@ -1618,8 +1618,8 @@
         <v>27</v>
       </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="11">
-        <v>25400415</v>
+      <c r="E56" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="11" t="s">
         <v>12</v>
@@ -1634,7 +1634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>18</v>
       </c>
@@ -1643,22 +1643,22 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>39434280</v>
+        <v>61771727</v>
       </c>
       <c r="F57" s="9">
-        <v>61771727</v>
+        <v>89242075</v>
       </c>
       <c r="G57" s="9">
-        <v>89242075</v>
+        <v>129154955</v>
       </c>
       <c r="H57" s="9">
-        <v>129154955</v>
+        <v>179441310</v>
       </c>
       <c r="I57" s="9">
-        <v>179441310</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+        <v>231207877</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>19</v>
       </c>
@@ -1666,23 +1666,23 @@
         <v>27</v>
       </c>
       <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
-        <v>12</v>
+      <c r="E58" s="11">
+        <v>40034792</v>
       </c>
       <c r="F58" s="11">
-        <v>40034792</v>
+        <v>57071204</v>
       </c>
       <c r="G58" s="11">
-        <v>57071204</v>
+        <v>81130264</v>
       </c>
       <c r="H58" s="11">
-        <v>81130264</v>
+        <v>109942732</v>
       </c>
       <c r="I58" s="11">
-        <v>109942732</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>143938907</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1692,7 +1692,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1712,7 +1712,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>30</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1744,7 +1744,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>10</v>
       </c>
@@ -1761,14 +1761,14 @@
       <c r="G64" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H64" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I64" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H64" s="9">
+        <v>0</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>22</v>
       </c>
@@ -1776,23 +1776,23 @@
         <v>25</v>
       </c>
       <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
-        <v>12</v>
+      <c r="E65" s="11">
+        <v>42383</v>
       </c>
       <c r="F65" s="11">
-        <v>42383</v>
+        <v>42198</v>
       </c>
       <c r="G65" s="11">
-        <v>42198</v>
-      </c>
-      <c r="H65" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H65" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I65" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
         <v>13</v>
       </c>
@@ -1800,8 +1800,8 @@
         <v>25</v>
       </c>
       <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
-        <v>12</v>
+      <c r="E66" s="9">
+        <v>0</v>
       </c>
       <c r="F66" s="9">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>14</v>
       </c>
@@ -1833,14 +1833,14 @@
       <c r="G67" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>12</v>
+      <c r="H67" s="11">
+        <v>-33207</v>
       </c>
       <c r="I67" s="11">
-        <v>-33207</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-44327</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
@@ -1848,23 +1848,23 @@
         <v>25</v>
       </c>
       <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>12</v>
+      <c r="E68" s="9">
+        <v>-1581659</v>
       </c>
       <c r="F68" s="9">
-        <v>-1581659</v>
+        <v>-2539185</v>
       </c>
       <c r="G68" s="9">
-        <v>-2539185</v>
+        <v>-5770140</v>
       </c>
       <c r="H68" s="9">
-        <v>-5770140</v>
+        <v>-6692251</v>
       </c>
       <c r="I68" s="9">
-        <v>-6692251</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-8927475</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>18</v>
       </c>
@@ -1872,23 +1872,23 @@
         <v>25</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>12</v>
+      <c r="E69" s="11">
+        <v>-1500481</v>
       </c>
       <c r="F69" s="11">
-        <v>-1500481</v>
+        <v>-2613612</v>
       </c>
       <c r="G69" s="11">
-        <v>-2613612</v>
+        <v>-4470054</v>
       </c>
       <c r="H69" s="11">
-        <v>-4470054</v>
+        <v>-6599890</v>
       </c>
       <c r="I69" s="11">
-        <v>-6599890</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-11358872</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="8" t="s">
         <v>19</v>
       </c>
@@ -1896,45 +1896,45 @@
         <v>25</v>
       </c>
       <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
-        <v>12</v>
+      <c r="E70" s="9">
+        <v>-908584</v>
       </c>
       <c r="F70" s="9">
-        <v>-908584</v>
+        <v>-1401284</v>
       </c>
       <c r="G70" s="9">
-        <v>-1401284</v>
+        <v>-2442470</v>
       </c>
       <c r="H70" s="9">
-        <v>-2442470</v>
+        <v>-4431481</v>
       </c>
       <c r="I70" s="9">
-        <v>-4431481</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-5986636</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>0</v>
+        <v>-3948341</v>
       </c>
       <c r="F71" s="13">
-        <v>-3948341</v>
+        <v>-6511883</v>
       </c>
       <c r="G71" s="13">
-        <v>-6511883</v>
+        <v>-12682664</v>
       </c>
       <c r="H71" s="13">
-        <v>-12682664</v>
+        <v>-17756829</v>
       </c>
       <c r="I71" s="13">
-        <v>-17756829</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-26317310</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1944,7 +1944,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1954,7 +1954,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1964,7 +1964,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1996,7 +1996,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>10</v>
       </c>
@@ -2013,14 +2013,14 @@
       <c r="G77" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H77" s="9">
+        <v>0</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>22</v>
       </c>
@@ -2028,23 +2028,23 @@
         <v>25</v>
       </c>
       <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
-        <v>12</v>
+      <c r="E78" s="11">
+        <v>-29295</v>
       </c>
       <c r="F78" s="11">
-        <v>-29295</v>
+        <v>-26933</v>
       </c>
       <c r="G78" s="11">
-        <v>-26933</v>
-      </c>
-      <c r="H78" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
         <v>13</v>
       </c>
@@ -2055,8 +2055,8 @@
       <c r="E79" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="9" t="s">
-        <v>12</v>
+      <c r="F79" s="9">
+        <v>0</v>
       </c>
       <c r="G79" s="9">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
         <v>14</v>
       </c>
@@ -2085,14 +2085,14 @@
       <c r="G80" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="11" t="s">
-        <v>12</v>
+      <c r="H80" s="11">
+        <v>11828</v>
       </c>
       <c r="I80" s="11">
-        <v>11828</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>16</v>
       </c>
@@ -2100,23 +2100,23 @@
         <v>25</v>
       </c>
       <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
-        <v>12</v>
+      <c r="E81" s="9">
+        <v>918238</v>
       </c>
       <c r="F81" s="9">
-        <v>918238</v>
+        <v>1540583</v>
       </c>
       <c r="G81" s="9">
-        <v>1540583</v>
+        <v>2379349</v>
       </c>
       <c r="H81" s="9">
-        <v>2379349</v>
+        <v>2858835</v>
       </c>
       <c r="I81" s="9">
-        <v>2858835</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4992664</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>18</v>
       </c>
@@ -2124,23 +2124,23 @@
         <v>25</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>12</v>
+      <c r="E82" s="11">
+        <v>916832</v>
       </c>
       <c r="F82" s="11">
-        <v>916832</v>
+        <v>1403620</v>
       </c>
       <c r="G82" s="11">
-        <v>1403620</v>
+        <v>1933707</v>
       </c>
       <c r="H82" s="11">
-        <v>1933707</v>
+        <v>1600219</v>
       </c>
       <c r="I82" s="11">
-        <v>1600219</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+        <v>4467076</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>19</v>
       </c>
@@ -2148,42 +2148,42 @@
         <v>25</v>
       </c>
       <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
-        <v>12</v>
+      <c r="E83" s="9">
+        <v>452679</v>
       </c>
       <c r="F83" s="9">
-        <v>452679</v>
+        <v>701105</v>
       </c>
       <c r="G83" s="9">
-        <v>701105</v>
+        <v>1048403</v>
       </c>
       <c r="H83" s="9">
-        <v>1048403</v>
+        <v>884470</v>
       </c>
       <c r="I83" s="9">
-        <v>884470</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1894451</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
       <c r="E84" s="13">
-        <v>0</v>
+        <v>2258454</v>
       </c>
       <c r="F84" s="13">
-        <v>2258454</v>
+        <v>3618375</v>
       </c>
       <c r="G84" s="13">
-        <v>3618375</v>
+        <v>5361459</v>
       </c>
       <c r="H84" s="13">
-        <v>5361459</v>
+        <v>5355352</v>
       </c>
       <c r="I84" s="13">
-        <v>5355352</v>
+        <v>11375105</v>
       </c>
     </row>
   </sheetData>
